--- a/predictions/Regresión Lineal.xlsx
+++ b/predictions/Regresión Lineal.xlsx
@@ -467,2141 +467,2141 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>66</v>
+        <v>461</v>
       </c>
       <c r="B2" t="n">
-        <v>33.62197064949949</v>
+        <v>3.825739889779132</v>
       </c>
       <c r="C2" t="n">
-        <v>30.84407960436218</v>
+        <v>-0.2308419780241735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F2" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G2" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="B3" t="n">
-        <v>35.70759383948607</v>
+        <v>3.761940458638251</v>
       </c>
       <c r="C3" t="n">
-        <v>36.21187956980528</v>
+        <v>-0.02344185890171957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F3" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G3" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="B4" t="n">
-        <v>9.042970143369383</v>
+        <v>25.3611971161263</v>
       </c>
       <c r="C4" t="n">
-        <v>12.61709493367911</v>
+        <v>24.38563592075192</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F4" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G4" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
-        <v>5.533736282791244</v>
+        <v>25.92373567674675</v>
       </c>
       <c r="C5" t="n">
-        <v>6.444121048431853</v>
+        <v>24.89000490067272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F5" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G5" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="B6" t="n">
-        <v>32.39724588681411</v>
+        <v>9.139727595822949</v>
       </c>
       <c r="C6" t="n">
-        <v>30.44051076707079</v>
+        <v>12.07739697136388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F6" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G6" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32.45915052690833</v>
+        <v>37.02196921588188</v>
       </c>
       <c r="C7" t="n">
-        <v>30.05547558343116</v>
+        <v>37.05630560729752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F7" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G7" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>32.64082461583738</v>
+        <v>36.50266810413065</v>
       </c>
       <c r="C8" t="n">
-        <v>30.25627812468755</v>
+        <v>36.72005962068367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F8" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G8" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="B9" t="n">
-        <v>9.293592986628051</v>
+        <v>3.830354337123631</v>
       </c>
       <c r="C9" t="n">
-        <v>12.96070537013588</v>
+        <v>0.4023728693880315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F9" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G9" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B10" t="n">
-        <v>8.946651290016694</v>
+        <v>16.40503796376941</v>
       </c>
       <c r="C10" t="n">
-        <v>12.95242042069931</v>
+        <v>18.18018588758405</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F10" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G10" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="B11" t="n">
-        <v>36.33405088062617</v>
+        <v>25.37941192325886</v>
       </c>
       <c r="C11" t="n">
-        <v>36.71486780033555</v>
+        <v>24.24369767798869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F11" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G11" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>384</v>
+        <v>154</v>
       </c>
       <c r="B12" t="n">
-        <v>5.554821984794184</v>
+        <v>25.81560953347091</v>
       </c>
       <c r="C12" t="n">
-        <v>6.367592748724078</v>
+        <v>24.67159029150542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F12" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G12" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="B13" t="n">
-        <v>5.670693830709888</v>
+        <v>16.44936483423739</v>
       </c>
       <c r="C13" t="n">
-        <v>6.485545795614726</v>
+        <v>18.28492488975877</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F13" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G13" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>359</v>
+        <v>118</v>
       </c>
       <c r="B14" t="n">
-        <v>5.587845095481671</v>
+        <v>32.56669783272736</v>
       </c>
       <c r="C14" t="n">
-        <v>6.661493488561391</v>
+        <v>30.33339421893702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F14" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G14" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>272</v>
+        <v>386</v>
       </c>
       <c r="B15" t="n">
-        <v>9.128267664135446</v>
+        <v>5.616741153138189</v>
       </c>
       <c r="C15" t="n">
-        <v>12.96899031957246</v>
+        <v>5.96359356509889</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F15" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G15" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="B16" t="n">
-        <v>3.729758926889525</v>
+        <v>25.38750004299808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.463664755004416</v>
+        <v>24.85072777485719</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F16" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G16" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="B17" t="n">
-        <v>9.066550212282241</v>
+        <v>25.46267422650923</v>
       </c>
       <c r="C17" t="n">
-        <v>12.4245773418593</v>
+        <v>24.69569715682211</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F17" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G17" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>16.20477589649801</v>
+        <v>37.41636030129175</v>
       </c>
       <c r="C18" t="n">
-        <v>18.42988848359646</v>
+        <v>36.97982924089348</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F18" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G18" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>375</v>
+        <v>59</v>
       </c>
       <c r="B19" t="n">
-        <v>5.931349419646768</v>
+        <v>35.09790063381718</v>
       </c>
       <c r="C19" t="n">
-        <v>6.293028203794918</v>
+        <v>36.30733726766577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F19" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G19" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="B20" t="n">
-        <v>9.543417625318474</v>
+        <v>3.816170167733738</v>
       </c>
       <c r="C20" t="n">
-        <v>12.17210134920487</v>
+        <v>-0.1522877263931122</v>
       </c>
       <c r="D20" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F20" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G20" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
-        <v>37.01657359235036</v>
+        <v>36.7376779314733</v>
       </c>
       <c r="C21" t="n">
-        <v>36.56377495569861</v>
+        <v>36.57812137792043</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F21" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G21" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="B22" t="n">
-        <v>35.90147695328182</v>
+        <v>25.40080076106186</v>
       </c>
       <c r="C22" t="n">
-        <v>36.41268211106166</v>
+        <v>24.10175943522545</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F22" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G22" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B23" t="n">
-        <v>3.718473906121518</v>
+        <v>3.835168350278848</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1697640151671038</v>
+        <v>0.1839582602207344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F23" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G23" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="B24" t="n">
-        <v>9.13317914557352</v>
+        <v>15.82922275524241</v>
       </c>
       <c r="C24" t="n">
-        <v>12.50742683622504</v>
+        <v>18.72383199332036</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F24" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G24" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>435</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>3.742685357016127</v>
+        <v>36.27868609344419</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5133744516238608</v>
+        <v>36.75933674649919</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F25" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G25" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B26" t="n">
-        <v>3.958141493399535</v>
+        <v>3.891063801888884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3125719103674811</v>
+        <v>-0.04962660944539721</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F26" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G26" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="B27" t="n">
-        <v>31.95607238163006</v>
+        <v>5.520135846549115</v>
       </c>
       <c r="C27" t="n">
-        <v>30.08033043174088</v>
+        <v>6.389408293388627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F27" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G27" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>32.56669783272736</v>
+        <v>35.31592403335603</v>
       </c>
       <c r="C28" t="n">
-        <v>30.2728480235607</v>
+        <v>36.48855263624454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F28" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G28" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>319</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
-        <v>9.170293488502159</v>
+        <v>32.46991996420247</v>
       </c>
       <c r="C29" t="n">
-        <v>12.10582175371228</v>
+        <v>30.19145597617377</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F29" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G29" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>313</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>9.543125694347371</v>
+        <v>36.18215366424738</v>
       </c>
       <c r="C30" t="n">
-        <v>12.30662429496867</v>
+        <v>36.65667562955147</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F30" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G30" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="B31" t="n">
-        <v>33.51443575857081</v>
+        <v>9.170293488502159</v>
       </c>
       <c r="C31" t="n">
-        <v>30.74269645634468</v>
+        <v>12.05329010604721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F31" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G31" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="B32" t="n">
-        <v>32.61505076110434</v>
+        <v>5.518178160263757</v>
       </c>
       <c r="C32" t="n">
-        <v>30.28113297299727</v>
+        <v>5.91122406401152</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F32" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G32" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="B33" t="n">
-        <v>33.26284184669019</v>
+        <v>9.188990187483629</v>
       </c>
       <c r="C33" t="n">
-        <v>30.42394086819765</v>
+        <v>12.42673533324958</v>
       </c>
       <c r="D33" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F33" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G33" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="B34" t="n">
-        <v>3.827746551553762</v>
+        <v>5.545852334419106</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2194737117865486</v>
+        <v>6.518254160880034</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F34" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G34" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B35" t="n">
-        <v>16.05369546282362</v>
+        <v>25.60198995271246</v>
       </c>
       <c r="C35" t="n">
-        <v>18.44645838246961</v>
+        <v>24.64540554096175</v>
       </c>
       <c r="D35" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F35" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G35" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="B36" t="n">
-        <v>36.29408316374568</v>
+        <v>5.585082498259657</v>
       </c>
       <c r="C36" t="n">
-        <v>36.37954231331537</v>
+        <v>6.428685419204143</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F36" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G36" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="B37" t="n">
-        <v>34.39763706613017</v>
+        <v>16.15053542490492</v>
       </c>
       <c r="C37" t="n">
-        <v>36.05250177573176</v>
+        <v>18.87886261135544</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F37" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G37" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42</v>
+        <v>452</v>
       </c>
       <c r="B38" t="n">
-        <v>35.92998167489784</v>
+        <v>3.762680535666966</v>
       </c>
       <c r="C38" t="n">
-        <v>36.42096706049823</v>
+        <v>-0.1130106005775957</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F38" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G38" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B39" t="n">
-        <v>32.3023539500641</v>
+        <v>32.84655917744532</v>
       </c>
       <c r="C39" t="n">
-        <v>30.22313832694125</v>
+        <v>30.51460958751578</v>
       </c>
       <c r="D39" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F39" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G39" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="B40" t="n">
-        <v>5.647927238840738</v>
+        <v>25.81480524039005</v>
       </c>
       <c r="C40" t="n">
-        <v>6.603498842505374</v>
+        <v>24.42491304656745</v>
       </c>
       <c r="D40" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F40" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G40" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>404</v>
       </c>
       <c r="B41" t="n">
-        <v>36.76862066651251</v>
+        <v>3.721938546141145</v>
       </c>
       <c r="C41" t="n">
-        <v>36.58862980400832</v>
+        <v>0.5704958626949548</v>
       </c>
       <c r="D41" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F41" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G41" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="B42" t="n">
-        <v>9.604064608464506</v>
+        <v>16.48661191725617</v>
       </c>
       <c r="C42" t="n">
-        <v>12.29833934553209</v>
+        <v>18.32212413034729</v>
       </c>
       <c r="D42" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F42" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G42" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>161</v>
+        <v>401</v>
       </c>
       <c r="B43" t="n">
-        <v>26.00315771441394</v>
+        <v>3.911027901585037</v>
       </c>
       <c r="C43" t="n">
-        <v>24.60286236884372</v>
+        <v>0.6097729885104712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F43" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G43" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>333</v>
+        <v>85</v>
       </c>
       <c r="B44" t="n">
-        <v>5.668668944601276</v>
+        <v>33.70573202879324</v>
       </c>
       <c r="C44" t="n">
-        <v>6.947109278962131</v>
+        <v>30.79848607304228</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F44" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G44" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="B45" t="n">
-        <v>9.357705696727571</v>
+        <v>25.26976130666345</v>
       </c>
       <c r="C45" t="n">
-        <v>12.16381639976829</v>
+        <v>24.63231316568991</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F45" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G45" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="B46" t="n">
-        <v>15.57118912272384</v>
+        <v>5.832266357356409</v>
       </c>
       <c r="C46" t="n">
-        <v>18.64726092372599</v>
+        <v>6.079347057318458</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F46" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G46" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.603787413000167</v>
+        <v>33.23580760371881</v>
       </c>
       <c r="C47" t="n">
-        <v>6.334452950977791</v>
+        <v>30.82467082358595</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F47" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G47" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c r="B48" t="n">
-        <v>9.77010484284671</v>
+        <v>26.26003164810557</v>
       </c>
       <c r="C48" t="n">
-        <v>12.49085693735189</v>
+        <v>24.9161896512164</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F48" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G48" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>34.28843229435965</v>
+        <v>33.51365152151559</v>
       </c>
       <c r="C49" t="n">
-        <v>30.86064950323532</v>
+        <v>30.97970144162105</v>
       </c>
       <c r="D49" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F49" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G49" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>369</v>
+        <v>17</v>
       </c>
       <c r="B50" t="n">
-        <v>5.596928945771867</v>
+        <v>36.33405088062617</v>
       </c>
       <c r="C50" t="n">
-        <v>6.493830745051298</v>
+        <v>36.90127498926243</v>
       </c>
       <c r="D50" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F50" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G50" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="B51" t="n">
-        <v>5.718599055556552</v>
+        <v>15.94586876701976</v>
       </c>
       <c r="C51" t="n">
-        <v>6.183360106340842</v>
+        <v>18.68455486750483</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F51" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G51" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="B52" t="n">
-        <v>9.19430471442301</v>
+        <v>9.328489336681161</v>
       </c>
       <c r="C52" t="n">
-        <v>12.43286229129588</v>
+        <v>11.93545872860065</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F52" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G52" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="B53" t="n">
-        <v>9.61913841495406</v>
+        <v>25.31536909152486</v>
       </c>
       <c r="C53" t="n">
-        <v>12.94413547126274</v>
+        <v>24.28297480380421</v>
       </c>
       <c r="D53" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F53" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G53" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="B54" t="n">
-        <v>33.7961776291734</v>
+        <v>16.05383573030887</v>
       </c>
       <c r="C54" t="n">
-        <v>30.8689344526719</v>
+        <v>18.36140125616281</v>
       </c>
       <c r="D54" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F54" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G54" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>151</v>
+        <v>453</v>
       </c>
       <c r="B55" t="n">
-        <v>25.70038451879469</v>
+        <v>3.70180080842005</v>
       </c>
       <c r="C55" t="n">
-        <v>24.77052511235381</v>
+        <v>-0.1261029758494345</v>
       </c>
       <c r="D55" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F55" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G55" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B56" t="n">
-        <v>16.33878698759122</v>
+        <v>16.13461069173344</v>
       </c>
       <c r="C56" t="n">
-        <v>18.89145196694388</v>
+        <v>18.81340073499624</v>
       </c>
       <c r="D56" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F56" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G56" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>36.7376779314733</v>
+        <v>34.03123931117391</v>
       </c>
       <c r="C57" t="n">
-        <v>36.40439716162509</v>
+        <v>36.25496776657841</v>
       </c>
       <c r="D57" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F57" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G57" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="B58" t="n">
-        <v>15.76311408395796</v>
+        <v>35.97055955421401</v>
       </c>
       <c r="C58" t="n">
-        <v>18.75692902118007</v>
+        <v>36.70696724541182</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F58" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G58" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="B59" t="n">
-        <v>9.326892136517456</v>
+        <v>5.543589082805504</v>
       </c>
       <c r="C59" t="n">
-        <v>12.75161787944292</v>
+        <v>6.040069931502927</v>
       </c>
       <c r="D59" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F59" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G59" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>33.96600843495598</v>
+        <v>33.62197064949949</v>
       </c>
       <c r="C60" t="n">
-        <v>30.9020742504182</v>
+        <v>31.05825569325209</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F60" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G60" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="B61" t="n">
-        <v>25.04253993713838</v>
+        <v>15.86669884884798</v>
       </c>
       <c r="C61" t="n">
-        <v>24.25096698295039</v>
+        <v>18.42686313252202</v>
       </c>
       <c r="D61" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F61" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G61" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B62" t="n">
-        <v>31.86632825388287</v>
+        <v>35.92998167489784</v>
       </c>
       <c r="C62" t="n">
-        <v>30.07204548230431</v>
+        <v>36.55193662737674</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F62" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G62" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>452</v>
+        <v>315</v>
       </c>
       <c r="B63" t="n">
-        <v>3.762680535666966</v>
+        <v>9.060270206224866</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1531941162939603</v>
+        <v>12.11667409717941</v>
       </c>
       <c r="D63" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F63" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G63" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>370</v>
+        <v>245</v>
       </c>
       <c r="B64" t="n">
-        <v>5.72831247467412</v>
+        <v>15.90738459508778</v>
       </c>
       <c r="C64" t="n">
-        <v>6.50211569448787</v>
+        <v>18.24564776394325</v>
       </c>
       <c r="D64" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F64" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G64" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B65" t="n">
-        <v>15.57652632141996</v>
+        <v>9.128152268316304</v>
       </c>
       <c r="C65" t="n">
-        <v>18.13598774375916</v>
+        <v>12.63413545237205</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F65" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G65" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="B66" t="n">
-        <v>26.1396200792531</v>
+        <v>16.14308504878024</v>
       </c>
       <c r="C66" t="n">
-        <v>24.45176952420677</v>
+        <v>18.16709351231221</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F66" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G66" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="B67" t="n">
-        <v>25.81560953347091</v>
+        <v>5.512719711120147</v>
       </c>
       <c r="C67" t="n">
-        <v>24.5448677227877</v>
+        <v>5.898131688739682</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F67" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G67" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="B68" t="n">
-        <v>25.70386361884508</v>
+        <v>34.7892465310676</v>
       </c>
       <c r="C68" t="n">
-        <v>24.75395521348066</v>
+        <v>36.26806014185025</v>
       </c>
       <c r="D68" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F68" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G68" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="B69" t="n">
-        <v>16.04882704277736</v>
+        <v>3.827746551553762</v>
       </c>
       <c r="C69" t="n">
-        <v>18.61412112597971</v>
+        <v>-0.2177496027523205</v>
       </c>
       <c r="D69" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F69" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G69" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="B70" t="n">
-        <v>9.453287114792133</v>
+        <v>5.554821984794184</v>
       </c>
       <c r="C70" t="n">
-        <v>12.13896155145856</v>
+        <v>6.000792805687396</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F70" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G70" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="B71" t="n">
-        <v>5.847177353118321</v>
+        <v>25.73434123776476</v>
       </c>
       <c r="C71" t="n">
-        <v>6.191645055777414</v>
+        <v>24.82662090954052</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F71" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G71" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="B72" t="n">
-        <v>24.93317513017804</v>
+        <v>16.04882704277736</v>
       </c>
       <c r="C72" t="n">
-        <v>24.14958383493288</v>
+        <v>18.51643187419789</v>
       </c>
       <c r="D72" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F72" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G72" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="B73" t="n">
-        <v>5.530562281068065</v>
+        <v>32.8743475025756</v>
       </c>
       <c r="C73" t="n">
-        <v>6.779446535452038</v>
+        <v>30.46224008642842</v>
       </c>
       <c r="D73" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F73" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G73" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="B74" t="n">
-        <v>24.99474554049448</v>
+        <v>3.901972871914</v>
       </c>
       <c r="C74" t="n">
-        <v>24.06673434056715</v>
+        <v>-0.01034948362988075</v>
       </c>
       <c r="D74" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F74" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G74" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="B75" t="n">
-        <v>35.95603900339709</v>
+        <v>8.865260311614801</v>
       </c>
       <c r="C75" t="n">
-        <v>36.26158926642471</v>
+        <v>12.69751944350423</v>
       </c>
       <c r="D75" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F75" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G75" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="B76" t="n">
-        <v>5.518178160263757</v>
+        <v>3.756937333250371</v>
       </c>
       <c r="C76" t="n">
-        <v>6.166790207467699</v>
+        <v>0.2735270018966105</v>
       </c>
       <c r="D76" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F76" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G76" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="B77" t="n">
-        <v>25.65051378489349</v>
+        <v>9.156941513599763</v>
       </c>
       <c r="C77" t="n">
-        <v>24.91333300755417</v>
+        <v>12.50528958488063</v>
       </c>
       <c r="D77" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F77" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G77" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="B78" t="n">
-        <v>26.06515391878058</v>
+        <v>9.235756945150696</v>
       </c>
       <c r="C78" t="n">
-        <v>24.92990290642732</v>
+        <v>12.28479709048634</v>
       </c>
       <c r="D78" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F78" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G78" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B79" t="n">
-        <v>37.32425607551097</v>
+        <v>35.98477858061794</v>
       </c>
       <c r="C79" t="n">
-        <v>36.68172800258925</v>
+        <v>36.59121375319226</v>
       </c>
       <c r="D79" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F79" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G79" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="B80" t="n">
-        <v>16.45999242877764</v>
+        <v>31.93760473467211</v>
       </c>
       <c r="C80" t="n">
-        <v>18.7817838694898</v>
+        <v>30.20454835144561</v>
       </c>
       <c r="D80" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F80" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G80" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="B81" t="n">
-        <v>32.86483094727657</v>
+        <v>5.670693830709888</v>
       </c>
       <c r="C81" t="n">
-        <v>30.39908601988792</v>
+        <v>6.221285300081689</v>
       </c>
       <c r="D81" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F81" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G81" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="B82" t="n">
-        <v>3.782787809236039</v>
+        <v>32.67703673120305</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6396124479510803</v>
+        <v>30.34648659420886</v>
       </c>
       <c r="D82" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F82" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G82" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B83" t="n">
-        <v>3.776938757822866</v>
+        <v>3.772444475706469</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6727522456973816</v>
+        <v>0.4154652446598703</v>
       </c>
       <c r="D83" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F83" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G83" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="B84" t="n">
-        <v>37.6933069373018</v>
+        <v>5.631811636923904</v>
       </c>
       <c r="C84" t="n">
-        <v>36.88253054384564</v>
+        <v>6.660192403643279</v>
       </c>
       <c r="D84" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F84" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G84" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="B85" t="n">
-        <v>24.66078881415293</v>
+        <v>15.97647781630637</v>
       </c>
       <c r="C85" t="n">
-        <v>24.0833042394403</v>
+        <v>18.52952424946973</v>
       </c>
       <c r="D85" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F85" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G85" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="B86" t="n">
-        <v>32.10999863810274</v>
+        <v>36.90307264702734</v>
       </c>
       <c r="C86" t="n">
-        <v>30.11347022948718</v>
+        <v>36.74624437122735</v>
       </c>
       <c r="D86" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F86" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G86" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>324</v>
+        <v>101</v>
       </c>
       <c r="B87" t="n">
-        <v>9.011687806138841</v>
+        <v>32.85817933866564</v>
       </c>
       <c r="C87" t="n">
-        <v>12.14724650089515</v>
+        <v>30.56697908860315</v>
       </c>
       <c r="D87" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F87" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G87" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="B88" t="n">
-        <v>35.94298769200202</v>
+        <v>25.70038451879469</v>
       </c>
       <c r="C88" t="n">
-        <v>36.19530967093213</v>
+        <v>24.7218819073658</v>
       </c>
       <c r="D88" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F88" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G88" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>196</v>
+        <v>418</v>
       </c>
       <c r="B89" t="n">
-        <v>25.07467566888927</v>
+        <v>3.792671251039835</v>
       </c>
       <c r="C89" t="n">
-        <v>24.14129888549631</v>
+        <v>0.3651736287994964</v>
       </c>
       <c r="D89" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F89" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G89" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="B90" t="n">
-        <v>9.211871406309186</v>
+        <v>35.2053168518502</v>
       </c>
       <c r="C90" t="n">
-        <v>12.80961252549893</v>
+        <v>36.40999838461349</v>
       </c>
       <c r="D90" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F90" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G90" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="B91" t="n">
-        <v>35.83233971234583</v>
+        <v>25.27038600495287</v>
       </c>
       <c r="C91" t="n">
-        <v>36.22016451924185</v>
+        <v>24.43800542183929</v>
       </c>
       <c r="D91" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F91" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G91" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>419</v>
+        <v>180</v>
       </c>
       <c r="B92" t="n">
-        <v>3.760788374016918</v>
+        <v>25.93080197881073</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6313274985145085</v>
+        <v>24.3091595543479</v>
       </c>
       <c r="D92" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F92" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G92" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>100</v>
+        <v>443</v>
       </c>
       <c r="B93" t="n">
-        <v>32.63925197441367</v>
+        <v>3.757544114325556</v>
       </c>
       <c r="C93" t="n">
-        <v>30.3742311715782</v>
+        <v>0.0158352669138111</v>
       </c>
       <c r="D93" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F93" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G93" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="B94" t="n">
-        <v>5.545852334419106</v>
+        <v>5.571717640997458</v>
       </c>
       <c r="C94" t="n">
-        <v>6.81258633319834</v>
+        <v>5.976685940370729</v>
       </c>
       <c r="D94" t="n">
-        <v>0.008530187452164124</v>
+        <v>0.0112072137380911</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9668126532208795</v>
+        <v>0.9661965714660803</v>
       </c>
       <c r="F94" t="n">
-        <v>5.172981707726511</v>
+        <v>5.197883576716796</v>
       </c>
       <c r="G94" t="n">
-        <v>2.274418982449476</v>
+        <v>2.2798867464672</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/Regresión Lineal.xlsx
+++ b/predictions/Regresión Lineal.xlsx
@@ -436,2172 +436,2358 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>y_test</t>
+          <t>Modelo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>y_pred</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>Coeficiente de determinación</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>coeficiente de determinacion</t>
+          <t>Valores reales</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>Valores predichos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>Puntuaciones</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.825739889779132</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2308419780241735</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9661965714660803</v>
+        <v>36.18215366424738</v>
       </c>
       <c r="F2" t="n">
-        <v>5.197883576716796</v>
+        <v>36.57983208138678</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.761940458638251</v>
+        <v>184</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.02344185890171957</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.55107104308073</v>
       </c>
       <c r="F3" t="n">
-        <v>5.197883576716796</v>
+        <v>24.25352112598347</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B4" t="n">
-        <v>25.3611971161263</v>
+        <v>417</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>24.38563592075192</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.767310844091531</v>
       </c>
       <c r="F4" t="n">
-        <v>5.197883576716796</v>
+        <v>0.4509264264671202</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B5" t="n">
-        <v>25.92373567674675</v>
+        <v>66</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>24.89000490067272</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9661965714660803</v>
+        <v>33.62197064949949</v>
       </c>
       <c r="F5" t="n">
-        <v>5.197883576716796</v>
+        <v>30.99565346189661</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9.139727595822949</v>
+        <v>457</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>12.07739697136388</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.721225381030486</v>
       </c>
       <c r="F6" t="n">
-        <v>5.197883576716796</v>
+        <v>-0.1731533477427547</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>37.02196921588188</v>
+        <v>48</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>37.05630560729752</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9661965714660803</v>
+        <v>35.83233971234583</v>
       </c>
       <c r="F7" t="n">
-        <v>5.197883576716796</v>
+        <v>36.40735860994538</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B8" t="n">
-        <v>36.50266810413065</v>
+        <v>455</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>36.72005962068367</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.816170167733738</v>
       </c>
       <c r="F8" t="n">
-        <v>5.197883576716796</v>
+        <v>-0.1649265837982909</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.830354337123631</v>
+        <v>230</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4023728693880315</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9661965714660803</v>
+        <v>15.57118912272384</v>
       </c>
       <c r="F9" t="n">
-        <v>5.197883576716796</v>
+        <v>18.49686903505192</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.40503796376941</v>
+        <v>238</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>18.18018588758405</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.18031522948694</v>
       </c>
       <c r="F10" t="n">
-        <v>5.197883576716796</v>
+        <v>18.3490758554439</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B11" t="n">
-        <v>25.37941192325886</v>
+        <v>195</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>24.24369767798869</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.40080076106186</v>
       </c>
       <c r="F11" t="n">
-        <v>5.197883576716796</v>
+        <v>24.09338780045876</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25.81560953347091</v>
+        <v>36</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>24.67159029150542</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9661965714660803</v>
+        <v>35.91591846333451</v>
       </c>
       <c r="F12" t="n">
-        <v>5.197883576716796</v>
+        <v>36.57160531744231</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16.44936483423739</v>
+        <v>427</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>18.28492488975877</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.758071244553749</v>
       </c>
       <c r="F13" t="n">
-        <v>5.197883576716796</v>
+        <v>0.294906482914655</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B14" t="n">
-        <v>32.56669783272736</v>
+        <v>303</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>30.33339421893702</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.235756945150696</v>
       </c>
       <c r="F14" t="n">
-        <v>5.197883576716796</v>
+        <v>12.28449725937963</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.616741153138189</v>
+        <v>262</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>5.96359356509889</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.07976952613436</v>
       </c>
       <c r="F15" t="n">
-        <v>5.197883576716796</v>
+        <v>18.02058244045004</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25.38750004299808</v>
+        <v>179</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>24.85072777485719</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.04253993713838</v>
       </c>
       <c r="F16" t="n">
-        <v>5.197883576716796</v>
+        <v>24.27408803584461</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.46267422650923</v>
+        <v>169</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>24.69569715682211</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9661965714660803</v>
+        <v>24.83248415456956</v>
       </c>
       <c r="F17" t="n">
-        <v>5.197883576716796</v>
+        <v>24.43010797939709</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B18" t="n">
-        <v>37.41636030129175</v>
+        <v>295</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>36.97982924089348</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.241251996569426</v>
       </c>
       <c r="F18" t="n">
-        <v>5.197883576716796</v>
+        <v>12.43229043898765</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B19" t="n">
-        <v>35.09790063381718</v>
+        <v>152</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>36.30733726766577</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.84645500481929</v>
       </c>
       <c r="F19" t="n">
-        <v>5.197883576716796</v>
+        <v>24.72980772058533</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.816170167733738</v>
+        <v>241</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1522877263931122</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9661965714660803</v>
+        <v>15.83430943530649</v>
       </c>
       <c r="F20" t="n">
-        <v>5.197883576716796</v>
+        <v>18.3367357095272</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B21" t="n">
-        <v>36.7376779314733</v>
+        <v>89</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>36.57812137792043</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9661965714660803</v>
+        <v>33.140409990803</v>
       </c>
       <c r="F21" t="n">
-        <v>5.197883576716796</v>
+        <v>30.67127342887498</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B22" t="n">
-        <v>25.40080076106186</v>
+        <v>398</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>24.10175943522545</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.746568762210024</v>
       </c>
       <c r="F22" t="n">
-        <v>5.197883576716796</v>
+        <v>0.6439668077696581</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.835168350278848</v>
+        <v>448</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1839582602207344</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.891063801888884</v>
       </c>
       <c r="F23" t="n">
-        <v>5.197883576716796</v>
+        <v>-0.0212467861625214</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B24" t="n">
-        <v>15.82922275524241</v>
+        <v>20</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>18.72383199332036</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9661965714660803</v>
+        <v>36.9142653908813</v>
       </c>
       <c r="F24" t="n">
-        <v>5.197883576716796</v>
+        <v>36.86719167665833</v>
       </c>
       <c r="G24" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>36.27868609344419</v>
+        <v>126</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>36.75933674649919</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9661965714660803</v>
+        <v>31.64133699017442</v>
       </c>
       <c r="F25" t="n">
-        <v>5.197883576716796</v>
+        <v>30.17441992441195</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.891063801888884</v>
+        <v>62</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.04962660944539721</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9661965714660803</v>
+        <v>34.7892465310676</v>
       </c>
       <c r="F26" t="n">
-        <v>5.197883576716796</v>
+        <v>36.23488513850399</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5.520135846549115</v>
+        <v>79</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>6.389408293388627</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9661965714660803</v>
+        <v>33.42325111954285</v>
       </c>
       <c r="F27" t="n">
-        <v>5.197883576716796</v>
+        <v>30.82729337242745</v>
       </c>
       <c r="G27" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B28" t="n">
-        <v>35.31592403335603</v>
+        <v>338</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>36.48855263624454</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.538515212704869</v>
       </c>
       <c r="F28" t="n">
-        <v>5.197883576716796</v>
+        <v>6.687978493972778</v>
       </c>
       <c r="G28" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B29" t="n">
-        <v>32.46991996420247</v>
+        <v>350</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>30.19145597617377</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.699325836333296</v>
       </c>
       <c r="F29" t="n">
-        <v>5.197883576716796</v>
+        <v>6.52373178647585</v>
       </c>
       <c r="G29" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B30" t="n">
-        <v>36.18215366424738</v>
+        <v>263</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>36.65667562955147</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9661965714660803</v>
+        <v>15.86242830343183</v>
       </c>
       <c r="F30" t="n">
-        <v>5.197883576716796</v>
+        <v>18.01646905847781</v>
       </c>
       <c r="G30" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B31" t="n">
-        <v>9.170293488502159</v>
+        <v>423</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>12.05329010604721</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.75688376267878</v>
       </c>
       <c r="F31" t="n">
-        <v>5.197883576716796</v>
+        <v>0.3113600108035826</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5.518178160263757</v>
+        <v>190</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>5.91122406401152</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9661965714660803</v>
+        <v>24.94486061063579</v>
       </c>
       <c r="F32" t="n">
-        <v>5.197883576716796</v>
+        <v>24.1139547103199</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B33" t="n">
-        <v>9.188990187483629</v>
+        <v>388</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>12.42673533324958</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.508966702412626</v>
       </c>
       <c r="F33" t="n">
-        <v>5.197883576716796</v>
+        <v>5.907878776210424</v>
       </c>
       <c r="G33" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5.545852334419106</v>
+        <v>432</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>6.518254160880034</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.876145589221471</v>
       </c>
       <c r="F34" t="n">
-        <v>5.197883576716796</v>
+        <v>0.1594534492233208</v>
       </c>
       <c r="G34" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B35" t="n">
-        <v>25.60198995271246</v>
+        <v>353</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>24.64540554096175</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.585082498259657</v>
       </c>
       <c r="F35" t="n">
-        <v>5.197883576716796</v>
+        <v>6.396505516728993</v>
       </c>
       <c r="G35" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B36" t="n">
-        <v>5.585082498259657</v>
+        <v>461</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>6.428685419204143</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.825739889779132</v>
       </c>
       <c r="F36" t="n">
-        <v>5.197883576716796</v>
+        <v>-0.1896068756316822</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B37" t="n">
-        <v>16.15053542490492</v>
+        <v>112</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>18.87886261135544</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9661965714660803</v>
+        <v>32.3023539500641</v>
       </c>
       <c r="F37" t="n">
-        <v>5.197883576716796</v>
+        <v>30.34689339585334</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.762680535666966</v>
+        <v>57</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.1130106005775957</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9661965714660803</v>
+        <v>35.32831514218567</v>
       </c>
       <c r="F38" t="n">
-        <v>5.197883576716796</v>
+        <v>36.25545204836514</v>
       </c>
       <c r="G38" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B39" t="n">
-        <v>32.84655917744532</v>
+        <v>399</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>30.51460958751578</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.824456376652439</v>
       </c>
       <c r="F39" t="n">
-        <v>5.197883576716796</v>
+        <v>0.6398534257974262</v>
       </c>
       <c r="G39" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B40" t="n">
-        <v>25.81480524039005</v>
+        <v>93</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>24.42491304656745</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9661965714660803</v>
+        <v>32.92626024057289</v>
       </c>
       <c r="F40" t="n">
-        <v>5.197883576716796</v>
+        <v>30.65481990098605</v>
       </c>
       <c r="G40" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.721938546141145</v>
+        <v>297</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5704958626949548</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.066550212282241</v>
       </c>
       <c r="F41" t="n">
-        <v>5.197883576716796</v>
+        <v>12.30917755121301</v>
       </c>
       <c r="G41" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B42" t="n">
-        <v>16.48661191725617</v>
+        <v>400</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>18.32212413034729</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.660682041746813</v>
       </c>
       <c r="F42" t="n">
-        <v>5.197883576716796</v>
+        <v>0.6357400438252085</v>
       </c>
       <c r="G42" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.911027901585037</v>
+        <v>55</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6097729885104712</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9661965714660803</v>
+        <v>35.14042429385376</v>
       </c>
       <c r="F43" t="n">
-        <v>5.197883576716796</v>
+        <v>36.2636788123096</v>
       </c>
       <c r="G43" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B44" t="n">
-        <v>33.70573202879324</v>
+        <v>15</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>30.79848607304228</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9661965714660803</v>
+        <v>36.63265661957535</v>
       </c>
       <c r="F44" t="n">
-        <v>5.197883576716796</v>
+        <v>36.88775858651948</v>
       </c>
       <c r="G44" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B45" t="n">
-        <v>25.26976130666345</v>
+        <v>150</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>24.63231316568991</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.99675033707488</v>
       </c>
       <c r="F45" t="n">
-        <v>5.197883576716796</v>
+        <v>24.73803448452979</v>
       </c>
       <c r="G45" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5.832266357356409</v>
+        <v>156</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>6.079347057318458</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.60198995271246</v>
       </c>
       <c r="F46" t="n">
-        <v>5.197883576716796</v>
+        <v>24.59846806886624</v>
       </c>
       <c r="G46" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B47" t="n">
-        <v>33.23580760371881</v>
+        <v>210</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>30.82467082358595</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.36779463325428</v>
       </c>
       <c r="F47" t="n">
-        <v>5.197883576716796</v>
+        <v>18.69402279832669</v>
       </c>
       <c r="G47" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B48" t="n">
-        <v>26.26003164810557</v>
+        <v>416</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>24.9161896512164</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.830354337123631</v>
       </c>
       <c r="F48" t="n">
-        <v>5.197883576716796</v>
+        <v>0.4550398084393521</v>
       </c>
       <c r="G48" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B49" t="n">
-        <v>33.51365152151559</v>
+        <v>183</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>30.97970144162105</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.18747256669374</v>
       </c>
       <c r="F49" t="n">
-        <v>5.197883576716796</v>
+        <v>24.2576345079557</v>
       </c>
       <c r="G49" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B50" t="n">
-        <v>36.33405088062617</v>
+        <v>129</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>36.90127498926243</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9661965714660803</v>
+        <v>32.10999863810274</v>
       </c>
       <c r="F50" t="n">
-        <v>5.197883576716796</v>
+        <v>30.16207977849526</v>
       </c>
       <c r="G50" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B51" t="n">
-        <v>15.94586876701976</v>
+        <v>294</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>18.68455486750483</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.139191058692134</v>
       </c>
       <c r="F51" t="n">
-        <v>5.197883576716796</v>
+        <v>12.43640382095988</v>
       </c>
       <c r="G51" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B52" t="n">
-        <v>9.328489336681161</v>
+        <v>309</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>11.93545872860065</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.74243157212608</v>
       </c>
       <c r="F52" t="n">
-        <v>5.197883576716796</v>
+        <v>12.14493084371608</v>
       </c>
       <c r="G52" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B53" t="n">
-        <v>25.31536909152486</v>
+        <v>443</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>24.28297480380421</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.757544114325556</v>
       </c>
       <c r="F53" t="n">
-        <v>5.197883576716796</v>
+        <v>-0.0006798763013762255</v>
       </c>
       <c r="G53" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B54" t="n">
-        <v>16.05383573030887</v>
+        <v>125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>18.36140125616281</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9661965714660803</v>
+        <v>31.95607238163006</v>
       </c>
       <c r="F54" t="n">
-        <v>5.197883576716796</v>
+        <v>30.17853330638418</v>
       </c>
       <c r="G54" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3.70180080842005</v>
+        <v>426</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.1261029758494345</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.786388508150603</v>
       </c>
       <c r="F55" t="n">
-        <v>5.197883576716796</v>
+        <v>0.2990198648868869</v>
       </c>
       <c r="G55" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B56" t="n">
-        <v>16.13461069173344</v>
+        <v>378</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>18.81340073499624</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.832266357356409</v>
       </c>
       <c r="F56" t="n">
-        <v>5.197883576716796</v>
+        <v>6.063898719762904</v>
       </c>
       <c r="G56" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B57" t="n">
-        <v>34.03123931117391</v>
+        <v>80</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>36.25496776657841</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9661965714660803</v>
+        <v>33.39779838426407</v>
       </c>
       <c r="F57" t="n">
-        <v>5.197883576716796</v>
+        <v>30.82317999045522</v>
       </c>
       <c r="G57" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B58" t="n">
-        <v>35.97055955421401</v>
+        <v>67</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>36.70696724541182</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9661965714660803</v>
+        <v>34.03649540892781</v>
       </c>
       <c r="F58" t="n">
-        <v>5.197883576716796</v>
+        <v>30.99154007992438</v>
       </c>
       <c r="G58" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B59" t="n">
-        <v>5.543589082805504</v>
+        <v>109</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>6.040069931502927</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9661965714660803</v>
+        <v>32.8743475025756</v>
       </c>
       <c r="F59" t="n">
-        <v>5.197883576716796</v>
+        <v>30.47411966560021</v>
       </c>
       <c r="G59" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B60" t="n">
-        <v>33.62197064949949</v>
+        <v>337</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>31.05825569325209</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.631811636923904</v>
       </c>
       <c r="F60" t="n">
-        <v>5.197883576716796</v>
+        <v>6.69209187594501</v>
       </c>
       <c r="G60" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B61" t="n">
-        <v>15.86669884884798</v>
+        <v>275</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>18.42686313252202</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.192146435269805</v>
       </c>
       <c r="F61" t="n">
-        <v>5.197883576716796</v>
+        <v>12.62944420226242</v>
       </c>
       <c r="G61" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B62" t="n">
-        <v>35.92998167489784</v>
+        <v>267</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>36.55193662737674</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.278193341248972</v>
       </c>
       <c r="F62" t="n">
-        <v>5.197883576716796</v>
+        <v>12.77723738187042</v>
       </c>
       <c r="G62" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B63" t="n">
-        <v>9.060270206224866</v>
+        <v>198</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>12.11667409717941</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9661965714660803</v>
+        <v>15.94920564052997</v>
       </c>
       <c r="F63" t="n">
-        <v>5.197883576716796</v>
+        <v>18.85826950582361</v>
       </c>
       <c r="G63" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B64" t="n">
-        <v>15.90738459508778</v>
+        <v>172</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>18.24564776394325</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.81480524039005</v>
       </c>
       <c r="F64" t="n">
-        <v>5.197883576716796</v>
+        <v>24.4177678334804</v>
       </c>
       <c r="G64" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B65" t="n">
-        <v>9.128152268316304</v>
+        <v>249</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>12.63413545237205</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9661965714660803</v>
+        <v>15.7776761837687</v>
       </c>
       <c r="F65" t="n">
-        <v>5.197883576716796</v>
+        <v>18.1889425299192</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B66" t="n">
-        <v>16.14308504878024</v>
+        <v>352</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>18.16709351231221</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.647927238840738</v>
       </c>
       <c r="F66" t="n">
-        <v>5.197883576716796</v>
+        <v>6.400618898701225</v>
       </c>
       <c r="G66" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5.512719711120147</v>
+        <v>440</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>5.898131688739682</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.863679748772343</v>
       </c>
       <c r="F67" t="n">
-        <v>5.197883576716796</v>
+        <v>0.01166026961531941</v>
       </c>
       <c r="G67" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B68" t="n">
-        <v>34.7892465310676</v>
+        <v>377</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>36.26806014185025</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.588209347925448</v>
       </c>
       <c r="F68" t="n">
-        <v>5.197883576716796</v>
+        <v>6.068012101735121</v>
       </c>
       <c r="G68" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3.827746551553762</v>
+        <v>207</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.2177496027523205</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.00073006875554</v>
       </c>
       <c r="F69" t="n">
-        <v>5.197883576716796</v>
+        <v>18.82124906807354</v>
       </c>
       <c r="G69" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5.554821984794184</v>
+        <v>362</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>6.000792805687396</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.522465277622892</v>
       </c>
       <c r="F70" t="n">
-        <v>5.197883576716796</v>
+        <v>6.359485078978921</v>
       </c>
       <c r="G70" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B71" t="n">
-        <v>25.73434123776476</v>
+        <v>390</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>24.82662090954052</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.518178160263757</v>
       </c>
       <c r="F71" t="n">
-        <v>5.197883576716796</v>
+        <v>5.899652012265975</v>
       </c>
       <c r="G71" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B72" t="n">
-        <v>16.04882704277736</v>
+        <v>186</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>18.51643187419789</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9661965714660803</v>
+        <v>24.94758326174755</v>
       </c>
       <c r="F72" t="n">
-        <v>5.197883576716796</v>
+        <v>24.245294362039</v>
       </c>
       <c r="G72" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B73" t="n">
-        <v>32.8743475025756</v>
+        <v>279</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>30.46224008642842</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9661965714660803</v>
+        <v>9.057087303372601</v>
       </c>
       <c r="F73" t="n">
-        <v>5.197883576716796</v>
+        <v>12.61299067437351</v>
       </c>
       <c r="G73" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B74" t="n">
-        <v>3.901972871914</v>
+        <v>359</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.01034948362988075</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.587845095481671</v>
       </c>
       <c r="F74" t="n">
-        <v>5.197883576716796</v>
+        <v>6.371825224895616</v>
       </c>
       <c r="G74" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8.865260311614801</v>
+        <v>436</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>12.69751944350423</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.840881121586746</v>
       </c>
       <c r="F75" t="n">
-        <v>5.197883576716796</v>
+        <v>0.1429999213344075</v>
       </c>
       <c r="G75" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3.756937333250371</v>
+        <v>289</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0.2735270018966105</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9661965714660803</v>
+        <v>8.981839063484395</v>
       </c>
       <c r="F76" t="n">
-        <v>5.197883576716796</v>
+        <v>12.45697073082103</v>
       </c>
       <c r="G76" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B77" t="n">
-        <v>9.156941513599763</v>
+        <v>115</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>12.50528958488063</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9661965714660803</v>
+        <v>32.66436407276527</v>
       </c>
       <c r="F77" t="n">
-        <v>5.197883576716796</v>
+        <v>30.33455324993665</v>
       </c>
       <c r="G77" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B78" t="n">
-        <v>9.235756945150696</v>
+        <v>250</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>12.28479709048634</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.40503796376941</v>
       </c>
       <c r="F78" t="n">
-        <v>5.197883576716796</v>
+        <v>18.18482914794697</v>
       </c>
       <c r="G78" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B79" t="n">
-        <v>35.98477858061794</v>
+        <v>354</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>36.59121375319226</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.61279264357397</v>
       </c>
       <c r="F79" t="n">
-        <v>5.197883576716796</v>
+        <v>6.392392134756761</v>
       </c>
       <c r="G79" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B80" t="n">
-        <v>31.93760473467211</v>
+        <v>178</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>30.20454835144561</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.54454400369629</v>
       </c>
       <c r="F80" t="n">
-        <v>5.197883576716796</v>
+        <v>24.27820141781685</v>
       </c>
       <c r="G80" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B81" t="n">
-        <v>5.670693830709888</v>
+        <v>91</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>6.221285300081689</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9661965714660803</v>
+        <v>33.31665052902544</v>
       </c>
       <c r="F81" t="n">
-        <v>5.197883576716796</v>
+        <v>30.66304666493051</v>
       </c>
       <c r="G81" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B82" t="n">
-        <v>32.67703673120305</v>
+        <v>332</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>30.34648659420886</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.597076286022537</v>
       </c>
       <c r="F82" t="n">
-        <v>5.197883576716796</v>
+        <v>6.712658785806155</v>
       </c>
       <c r="G82" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3.772444475706469</v>
+        <v>56</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0.4154652446598703</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9661965714660803</v>
+        <v>35.54785996198135</v>
       </c>
       <c r="F83" t="n">
-        <v>5.197883576716796</v>
+        <v>36.25956543033737</v>
       </c>
       <c r="G83" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5.631811636923904</v>
+        <v>409</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>6.660192403643279</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.719740494645581</v>
       </c>
       <c r="F84" t="n">
-        <v>5.197883576716796</v>
+        <v>0.483833482244961</v>
       </c>
       <c r="G84" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B85" t="n">
-        <v>15.97647781630637</v>
+        <v>227</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>18.52952424946973</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.09787074682466</v>
       </c>
       <c r="F85" t="n">
-        <v>5.197883576716796</v>
+        <v>18.50920918096861</v>
       </c>
       <c r="G85" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B86" t="n">
-        <v>36.90307264702734</v>
+        <v>206</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>36.74624437122735</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.02626892618974</v>
       </c>
       <c r="F86" t="n">
-        <v>5.197883576716796</v>
+        <v>18.82536245004577</v>
       </c>
       <c r="G86" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B87" t="n">
-        <v>32.85817933866564</v>
+        <v>391</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>30.56697908860315</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.512719711120147</v>
       </c>
       <c r="F87" t="n">
-        <v>5.197883576716796</v>
+        <v>5.895538630293743</v>
       </c>
       <c r="G87" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B88" t="n">
-        <v>25.70038451879469</v>
+        <v>363</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>24.7218819073658</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.533736282791244</v>
       </c>
       <c r="F88" t="n">
-        <v>5.197883576716796</v>
+        <v>6.240485573176514</v>
       </c>
       <c r="G88" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3.792671251039835</v>
+        <v>128</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0.3651736287994964</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9661965714660803</v>
+        <v>32.46991996420247</v>
       </c>
       <c r="F89" t="n">
-        <v>5.197883576716796</v>
+        <v>30.16619316046749</v>
       </c>
       <c r="G89" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B90" t="n">
-        <v>35.2053168518502</v>
+        <v>165</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>36.40999838461349</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9661965714660803</v>
+        <v>25.42970562218277</v>
       </c>
       <c r="F90" t="n">
-        <v>5.197883576716796</v>
+        <v>24.44656150728601</v>
       </c>
       <c r="G90" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B91" t="n">
-        <v>25.27038600495287</v>
+        <v>434</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>24.43800542183929</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9661965714660803</v>
+        <v>3.810864199332392</v>
       </c>
       <c r="F91" t="n">
-        <v>5.197883576716796</v>
+        <v>0.1512266852788713</v>
       </c>
       <c r="G91" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B92" t="n">
-        <v>25.93080197881073</v>
+        <v>51</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>24.3091595543479</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9661965714660803</v>
+        <v>36.02771958098302</v>
       </c>
       <c r="F92" t="n">
-        <v>5.197883576716796</v>
+        <v>36.39501846402869</v>
       </c>
       <c r="G92" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3.757544114325556</v>
+        <v>384</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0158352669138111</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9661965714660803</v>
+        <v>5.554821984794184</v>
       </c>
       <c r="F93" t="n">
-        <v>5.197883576716796</v>
+        <v>6.039218427929512</v>
       </c>
       <c r="G93" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5.571717640997458</v>
+        <v>254</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Regresión lineal</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>5.976685940370729</v>
+        <v>2.338721366382135</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0112072137380911</v>
+        <v>0.9630584271306524</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9661965714660803</v>
+        <v>16.02080276497291</v>
       </c>
       <c r="F94" t="n">
-        <v>5.197883576716796</v>
+        <v>18.05348949622788</v>
       </c>
       <c r="G94" t="n">
-        <v>2.2798867464672</v>
+        <v>0.9630970100690911</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/Regresión Lineal.xlsx
+++ b/predictions/Regresión Lineal.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,24 +475,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E2" t="n">
-        <v>36.18215366424738</v>
+        <v>25.92373567674675</v>
       </c>
       <c r="F2" t="n">
-        <v>36.57983208138678</v>
+        <v>24.82264479330748</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,24 +500,24 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E3" t="n">
-        <v>25.55107104308073</v>
+        <v>9.328489336681161</v>
       </c>
       <c r="F3" t="n">
-        <v>24.25352112598347</v>
+        <v>12.40712237095562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>417</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,24 +525,24 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E4" t="n">
-        <v>3.767310844091531</v>
+        <v>36.27868609344419</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4509264264671202</v>
+        <v>36.71461179395086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>66</v>
+        <v>413</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,24 +550,24 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E5" t="n">
-        <v>33.62197064949949</v>
+        <v>3.723945699254612</v>
       </c>
       <c r="F5" t="n">
-        <v>30.99565346189661</v>
+        <v>0.5642946175105692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>457</v>
+        <v>314</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,24 +575,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E6" t="n">
-        <v>3.721225381030486</v>
+        <v>9.205304769431461</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1731533477427547</v>
+        <v>12.4216471929401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,24 +600,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E7" t="n">
-        <v>35.83233971234583</v>
+        <v>5.668668944601276</v>
       </c>
       <c r="F7" t="n">
-        <v>36.40735860994538</v>
+        <v>6.619686174718751</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>455</v>
+        <v>111</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,24 +625,24 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E8" t="n">
-        <v>3.816170167733738</v>
+        <v>33.02175886948922</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1649265837982909</v>
+        <v>30.44379938246429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -650,24 +650,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E9" t="n">
-        <v>15.57118912272384</v>
+        <v>3.760788374016918</v>
       </c>
       <c r="F9" t="n">
-        <v>18.49686903505192</v>
+        <v>0.3890529696909653</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -675,24 +675,24 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E10" t="n">
-        <v>16.18031522948694</v>
+        <v>35.02800300422874</v>
       </c>
       <c r="F10" t="n">
-        <v>18.3490758554439</v>
+        <v>36.59067891507991</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,24 +700,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E11" t="n">
-        <v>25.40080076106186</v>
+        <v>25.76546876230332</v>
       </c>
       <c r="F11" t="n">
-        <v>24.09338780045876</v>
+        <v>24.517905485372</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -725,24 +725,24 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E12" t="n">
-        <v>35.91591846333451</v>
+        <v>25.15943562690483</v>
       </c>
       <c r="F12" t="n">
-        <v>36.57160531744231</v>
+        <v>24.73332633965038</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>427</v>
+        <v>250</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -750,24 +750,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E13" t="n">
-        <v>3.758071244553749</v>
+        <v>16.40503796376941</v>
       </c>
       <c r="F13" t="n">
-        <v>0.294906482914655</v>
+        <v>18.50269313462262</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -775,24 +775,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E14" t="n">
-        <v>9.235756945150696</v>
+        <v>3.793061439481745</v>
       </c>
       <c r="F14" t="n">
-        <v>12.28449725937963</v>
+        <v>0.6591778524126113</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -800,24 +800,24 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E15" t="n">
-        <v>16.07976952613436</v>
+        <v>9.155388736265865</v>
       </c>
       <c r="F15" t="n">
-        <v>18.02058244045004</v>
+        <v>12.55114485305597</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>179</v>
+        <v>276</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -825,24 +825,24 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E16" t="n">
-        <v>25.04253993713838</v>
+        <v>9.326892136517456</v>
       </c>
       <c r="F16" t="n">
-        <v>24.27408803584461</v>
+        <v>12.54558007181103</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -850,24 +850,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E17" t="n">
-        <v>24.83248415456956</v>
+        <v>35.92998167489784</v>
       </c>
       <c r="F17" t="n">
-        <v>24.43010797939709</v>
+        <v>36.72017657519579</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,24 +875,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E18" t="n">
-        <v>9.241251996569426</v>
+        <v>5.699325836333296</v>
       </c>
       <c r="F18" t="n">
-        <v>12.43229043898765</v>
+        <v>6.665430162422453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -900,24 +900,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E19" t="n">
-        <v>25.84645500481929</v>
+        <v>37.01657359235036</v>
       </c>
       <c r="F19" t="n">
-        <v>24.72980772058533</v>
+        <v>36.75479100040964</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -925,24 +925,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E20" t="n">
-        <v>15.83430943530649</v>
+        <v>25.73434123776476</v>
       </c>
       <c r="F20" t="n">
-        <v>18.3367357095272</v>
+        <v>24.6072239390291</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E21" t="n">
-        <v>33.140409990803</v>
+        <v>15.97647781630637</v>
       </c>
       <c r="F21" t="n">
-        <v>30.67127342887498</v>
+        <v>18.5920115882797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -975,24 +975,24 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E22" t="n">
-        <v>3.746568762210024</v>
+        <v>9.042970143369383</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6439668077696581</v>
+        <v>12.53105524982658</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1000,24 +1000,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E23" t="n">
-        <v>3.891063801888884</v>
+        <v>3.911027901585037</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0212467861625214</v>
+        <v>0.6189986459538233</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1025,24 +1025,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E24" t="n">
-        <v>36.9142653908813</v>
+        <v>15.86242830343183</v>
       </c>
       <c r="F24" t="n">
-        <v>36.86719167665833</v>
+        <v>18.46807870940874</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1050,24 +1050,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E25" t="n">
-        <v>31.64133699017442</v>
+        <v>31.86632825388287</v>
       </c>
       <c r="F25" t="n">
-        <v>30.17441992441195</v>
+        <v>30.40918495725044</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>62</v>
+        <v>375</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1075,24 +1075,24 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E26" t="n">
-        <v>34.7892465310676</v>
+        <v>5.931349419646768</v>
       </c>
       <c r="F26" t="n">
-        <v>36.23488513850399</v>
+        <v>6.280332441569414</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1100,24 +1100,24 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E27" t="n">
-        <v>33.42325111954285</v>
+        <v>15.86669884884798</v>
       </c>
       <c r="F27" t="n">
-        <v>30.82729337242745</v>
+        <v>18.43685954368949</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1125,24 +1125,24 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E28" t="n">
-        <v>5.538515212704869</v>
+        <v>3.719740494645581</v>
       </c>
       <c r="F28" t="n">
-        <v>6.687978493972778</v>
+        <v>0.4839362045929931</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>350</v>
+        <v>182</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1150,24 +1150,24 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E29" t="n">
-        <v>5.699325836333296</v>
+        <v>25.31536909152486</v>
       </c>
       <c r="F29" t="n">
-        <v>6.52373178647585</v>
+        <v>24.50338066338754</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1175,24 +1175,24 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E30" t="n">
-        <v>15.86242830343183</v>
+        <v>9.240112924441959</v>
       </c>
       <c r="F30" t="n">
-        <v>18.01646905847781</v>
+        <v>12.64046330671307</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>423</v>
+        <v>178</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1200,24 +1200,24 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E31" t="n">
-        <v>3.75688376267878</v>
+        <v>25.54454400369629</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3113600108035826</v>
+        <v>24.42302225046997</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1225,24 +1225,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E32" t="n">
-        <v>24.94486061063579</v>
+        <v>25.6528843651947</v>
       </c>
       <c r="F32" t="n">
-        <v>24.1139547103199</v>
+        <v>24.55251991058585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1250,24 +1250,24 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E33" t="n">
-        <v>5.508966702412626</v>
+        <v>9.348036837204344</v>
       </c>
       <c r="F33" t="n">
-        <v>5.907878776210424</v>
+        <v>12.70629689764617</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1275,24 +1275,24 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E34" t="n">
-        <v>3.876145589221471</v>
+        <v>5.588209347925448</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1594534492233208</v>
+        <v>6.320511648028202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>353</v>
+        <v>280</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1300,24 +1300,24 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E35" t="n">
-        <v>5.585082498259657</v>
+        <v>9.092948498606736</v>
       </c>
       <c r="F35" t="n">
-        <v>6.396505516728993</v>
+        <v>12.62593848472861</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>461</v>
+        <v>293</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1325,24 +1325,24 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E36" t="n">
-        <v>3.825739889779132</v>
+        <v>9.188990187483629</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1896068756316822</v>
+        <v>12.59132405951476</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1350,24 +1350,24 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E37" t="n">
-        <v>32.3023539500641</v>
+        <v>25.8088149534718</v>
       </c>
       <c r="F37" t="n">
-        <v>30.34689339585334</v>
+        <v>24.68201757070173</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1375,24 +1375,24 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E38" t="n">
-        <v>35.32831514218567</v>
+        <v>36.37949670690669</v>
       </c>
       <c r="F38" t="n">
-        <v>36.25545204836514</v>
+        <v>36.65434298426268</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>399</v>
+        <v>219</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1400,24 +1400,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E39" t="n">
-        <v>3.824456376652439</v>
+        <v>15.78543489341127</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6398534257974262</v>
+        <v>18.76725323609929</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1425,24 +1425,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E40" t="n">
-        <v>32.92626024057289</v>
+        <v>25.4548065592291</v>
       </c>
       <c r="F40" t="n">
-        <v>30.65481990098605</v>
+        <v>24.66749274871727</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1450,24 +1450,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E41" t="n">
-        <v>9.066550212282241</v>
+        <v>5.647927238840738</v>
       </c>
       <c r="F41" t="n">
-        <v>12.30917755121301</v>
+        <v>6.409830101685301</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1475,24 +1475,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E42" t="n">
-        <v>3.660682041746813</v>
+        <v>3.678253243151405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6357400438252085</v>
+        <v>0.3745281477065134</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1500,24 +1500,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E43" t="n">
-        <v>35.14042429385376</v>
+        <v>35.09790063381718</v>
       </c>
       <c r="F43" t="n">
-        <v>36.2636788123096</v>
+        <v>36.47014129570356</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1525,24 +1525,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E44" t="n">
-        <v>36.63265661957535</v>
+        <v>32.05199005341136</v>
       </c>
       <c r="F44" t="n">
-        <v>36.88775858651948</v>
+        <v>30.54981217985618</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1550,24 +1550,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E45" t="n">
-        <v>25.99675033707488</v>
+        <v>37.6961857107702</v>
       </c>
       <c r="F45" t="n">
-        <v>24.73803448452979</v>
+        <v>36.92446786698431</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>156</v>
+        <v>397</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1575,24 +1575,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E46" t="n">
-        <v>25.60198995271246</v>
+        <v>3.821905249938647</v>
       </c>
       <c r="F46" t="n">
-        <v>24.59846806886624</v>
+        <v>0.5386402330362472</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>210</v>
+        <v>443</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1600,24 +1600,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E47" t="n">
-        <v>16.36779463325428</v>
+        <v>3.757544114325556</v>
       </c>
       <c r="F47" t="n">
-        <v>18.69402279832669</v>
+        <v>0.2796449128044856</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1625,24 +1625,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E48" t="n">
-        <v>3.830354337123631</v>
+        <v>35.94298769200202</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4550398084393521</v>
+        <v>36.48466611768801</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1650,24 +1650,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E49" t="n">
-        <v>25.18747256669374</v>
+        <v>9.543417625318474</v>
       </c>
       <c r="F49" t="n">
-        <v>24.2576345079557</v>
+        <v>12.38703276772624</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>129</v>
+        <v>410</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1675,24 +1675,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E50" t="n">
-        <v>32.10999863810274</v>
+        <v>3.745236389032051</v>
       </c>
       <c r="F50" t="n">
-        <v>30.16207977849526</v>
+        <v>0.5040258078223872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>294</v>
+        <v>405</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1700,24 +1700,24 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E51" t="n">
-        <v>9.139191058692134</v>
+        <v>3.79014144777848</v>
       </c>
       <c r="F51" t="n">
-        <v>12.43640382095988</v>
+        <v>0.6993570588713851</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1725,24 +1725,24 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E52" t="n">
-        <v>9.74243157212608</v>
+        <v>25.33198252524191</v>
       </c>
       <c r="F52" t="n">
-        <v>12.14493084371608</v>
+        <v>24.61278872027403</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>443</v>
+        <v>172</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1750,24 +1750,24 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E53" t="n">
-        <v>3.757544114325556</v>
+        <v>25.81480524039005</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0006798763013762255</v>
+        <v>24.59826389828957</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1775,24 +1775,24 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E54" t="n">
-        <v>31.95607238163006</v>
+        <v>32.45915052690833</v>
       </c>
       <c r="F54" t="n">
-        <v>30.17853330638418</v>
+        <v>30.36900575079166</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>426</v>
+        <v>258</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1800,24 +1800,24 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E55" t="n">
-        <v>3.786388508150603</v>
+        <v>15.57941267079523</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2990198648868869</v>
+        <v>18.36763069326179</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1825,24 +1825,24 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E56" t="n">
-        <v>5.832266357356409</v>
+        <v>15.86798797515462</v>
       </c>
       <c r="F56" t="n">
-        <v>6.063898719762904</v>
+        <v>18.72150924839559</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1850,24 +1850,24 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E57" t="n">
-        <v>33.39779838426407</v>
+        <v>9.210924761770631</v>
       </c>
       <c r="F57" t="n">
-        <v>30.82317999045522</v>
+        <v>12.78109052931882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1875,24 +1875,24 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E58" t="n">
-        <v>34.03649540892781</v>
+        <v>9.53528539664835</v>
       </c>
       <c r="F58" t="n">
-        <v>30.99154007992438</v>
+        <v>12.46182639939889</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>109</v>
+        <v>324</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1900,24 +1900,24 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E59" t="n">
-        <v>32.8743475025756</v>
+        <v>9.011687806138841</v>
       </c>
       <c r="F59" t="n">
-        <v>30.47411966560021</v>
+        <v>12.32676395803806</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1925,24 +1925,24 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E60" t="n">
-        <v>5.631811636923904</v>
+        <v>37.2384830445334</v>
       </c>
       <c r="F60" t="n">
-        <v>6.69209187594501</v>
+        <v>36.78384064437856</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1950,24 +1950,24 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E61" t="n">
-        <v>9.192146435269805</v>
+        <v>16.54996358992755</v>
       </c>
       <c r="F61" t="n">
-        <v>12.62944420226242</v>
+        <v>18.42233472170504</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>267</v>
+        <v>384</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1975,24 +1975,24 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E62" t="n">
-        <v>9.278193341248972</v>
+        <v>5.554821984794184</v>
       </c>
       <c r="F62" t="n">
-        <v>12.77723738187042</v>
+        <v>6.461138870633945</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2000,24 +2000,24 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E63" t="n">
-        <v>15.94920564052997</v>
+        <v>9.396101617105797</v>
       </c>
       <c r="F63" t="n">
-        <v>18.85826950582361</v>
+        <v>12.48191600262827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2025,24 +2025,24 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E64" t="n">
-        <v>25.81480524039005</v>
+        <v>33.42325111954285</v>
       </c>
       <c r="F64" t="n">
-        <v>24.4177678334804</v>
+        <v>30.6882698807116</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>249</v>
+        <v>388</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2050,24 +2050,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E65" t="n">
-        <v>15.7776761837687</v>
+        <v>5.508966702412626</v>
       </c>
       <c r="F65" t="n">
-        <v>18.1889425299192</v>
+        <v>6.245718016355553</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>352</v>
+        <v>239</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2075,24 +2075,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E66" t="n">
-        <v>5.647927238840738</v>
+        <v>16.89881136261572</v>
       </c>
       <c r="F66" t="n">
-        <v>6.400618898701225</v>
+        <v>18.57748676629525</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>440</v>
+        <v>322</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2100,24 +2100,24 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E67" t="n">
-        <v>3.863679748772343</v>
+        <v>9.00348888338268</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01166026961531941</v>
+        <v>12.28658475157927</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2125,24 +2125,24 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E68" t="n">
-        <v>5.588209347925448</v>
+        <v>3.70180080842005</v>
       </c>
       <c r="F68" t="n">
-        <v>6.068012101735121</v>
+        <v>0.1847616779024435</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2150,24 +2150,24 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E69" t="n">
-        <v>16.00073006875554</v>
+        <v>32.56669783272736</v>
       </c>
       <c r="F69" t="n">
-        <v>18.82124906807354</v>
+        <v>30.58442660507004</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2175,24 +2175,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E70" t="n">
-        <v>5.522465277622892</v>
+        <v>26.06515391878058</v>
       </c>
       <c r="F70" t="n">
-        <v>6.359485078978921</v>
+        <v>24.84273439653687</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2200,24 +2200,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E71" t="n">
-        <v>5.518178160263757</v>
+        <v>16.36779463325428</v>
       </c>
       <c r="F71" t="n">
-        <v>5.899652012265975</v>
+        <v>18.58644680703476</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2225,24 +2225,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E72" t="n">
-        <v>24.94758326174755</v>
+        <v>9.193223295843874</v>
       </c>
       <c r="F72" t="n">
-        <v>24.245294362039</v>
+        <v>12.57123445628537</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2250,24 +2250,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E73" t="n">
-        <v>9.057087303372601</v>
+        <v>25.2181973095019</v>
       </c>
       <c r="F73" t="n">
-        <v>12.61299067437351</v>
+        <v>24.32813901556794</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2275,24 +2275,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E74" t="n">
-        <v>5.587845095481671</v>
+        <v>25.46267422650923</v>
       </c>
       <c r="F74" t="n">
-        <v>6.371825224895616</v>
+        <v>24.80811997132302</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2300,24 +2300,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E75" t="n">
-        <v>3.840881121586746</v>
+        <v>25.70038451879469</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1429999213344075</v>
+        <v>24.76794076486424</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2325,24 +2325,24 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E76" t="n">
-        <v>8.981839063484395</v>
+        <v>5.718599055556552</v>
       </c>
       <c r="F76" t="n">
-        <v>12.45697073082103</v>
+        <v>6.32607642927313</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2350,24 +2350,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E77" t="n">
-        <v>32.66436407276527</v>
+        <v>31.93760473467211</v>
       </c>
       <c r="F77" t="n">
-        <v>30.33455324993665</v>
+        <v>30.46945376693862</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2375,24 +2375,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E78" t="n">
-        <v>16.40503796376941</v>
+        <v>15.82963888605079</v>
       </c>
       <c r="F78" t="n">
-        <v>18.18482914794697</v>
+        <v>18.54287234108139</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>354</v>
+        <v>85</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2400,24 +2400,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E79" t="n">
-        <v>5.61279264357397</v>
+        <v>33.70573202879324</v>
       </c>
       <c r="F79" t="n">
-        <v>6.392392134756761</v>
+        <v>30.80880750008795</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2425,24 +2425,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E80" t="n">
-        <v>25.54454400369629</v>
+        <v>3.772444475706469</v>
       </c>
       <c r="F80" t="n">
-        <v>24.27820141781685</v>
+        <v>0.6044738239693572</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2450,24 +2450,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E81" t="n">
-        <v>33.31665052902544</v>
+        <v>16.10502424995405</v>
       </c>
       <c r="F81" t="n">
-        <v>30.66304666493051</v>
+        <v>18.40780989972058</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2475,24 +2475,24 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E82" t="n">
-        <v>5.597076286022537</v>
+        <v>15.54365959758353</v>
       </c>
       <c r="F82" t="n">
-        <v>6.712658785806155</v>
+        <v>18.327451486803</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>56</v>
+        <v>459</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2500,24 +2500,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E83" t="n">
-        <v>35.54785996198135</v>
+        <v>3.931985314015309</v>
       </c>
       <c r="F83" t="n">
-        <v>36.25956543033737</v>
+        <v>0.3052992972788076</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2525,24 +2525,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E84" t="n">
-        <v>3.719740494645581</v>
+        <v>37.6933069373018</v>
       </c>
       <c r="F84" t="n">
-        <v>0.483833482244961</v>
+        <v>36.90437826375491</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2550,24 +2550,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E85" t="n">
-        <v>16.09787074682466</v>
+        <v>36.74750381377912</v>
       </c>
       <c r="F85" t="n">
-        <v>18.50920918096861</v>
+        <v>36.88985344177046</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2575,24 +2575,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E86" t="n">
-        <v>16.02626892618974</v>
+        <v>25.93080197881073</v>
       </c>
       <c r="F86" t="n">
-        <v>18.82536245004577</v>
+        <v>24.46320145692875</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>391</v>
+        <v>70</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2600,24 +2600,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E87" t="n">
-        <v>5.512719711120147</v>
+        <v>33.77148314453076</v>
       </c>
       <c r="F87" t="n">
-        <v>5.895538630293743</v>
+        <v>30.80324271884302</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>363</v>
+        <v>54</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2625,24 +2625,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E88" t="n">
-        <v>5.533736282791244</v>
+        <v>35.35732296652551</v>
       </c>
       <c r="F88" t="n">
-        <v>6.240485573176514</v>
+        <v>36.66547254675254</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2650,24 +2650,24 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E89" t="n">
-        <v>32.46991996420247</v>
+        <v>9.150580534119594</v>
       </c>
       <c r="F89" t="n">
-        <v>30.16619316046749</v>
+        <v>12.49087604336779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2675,24 +2675,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E90" t="n">
-        <v>25.42970562218277</v>
+        <v>3.742685357016127</v>
       </c>
       <c r="F90" t="n">
-        <v>24.44656150728601</v>
+        <v>0.4147073541653015</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>434</v>
+        <v>310</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2700,24 +2700,24 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E91" t="n">
-        <v>3.810864199332392</v>
+        <v>9.294145794075908</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1512266852788713</v>
+        <v>12.34128878002252</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2725,24 +2725,24 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E92" t="n">
-        <v>36.02771958098302</v>
+        <v>16.13461069173344</v>
       </c>
       <c r="F92" t="n">
-        <v>36.39501846402869</v>
+        <v>18.78177805808377</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2750,24 +2750,24 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E93" t="n">
-        <v>5.554821984794184</v>
+        <v>9.060270206224866</v>
       </c>
       <c r="F93" t="n">
-        <v>6.039218427929512</v>
+        <v>12.44173679616949</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>254</v>
+        <v>402</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2775,19 +2775,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.338721366382135</v>
+        <v>2.390749602682792</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9630584271306524</v>
+        <v>0.9581946421549037</v>
       </c>
       <c r="E94" t="n">
-        <v>16.02080276497291</v>
+        <v>3.64746054273814</v>
       </c>
       <c r="F94" t="n">
-        <v>18.05348949622788</v>
+        <v>0.6390882491832173</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9630970100690911</v>
+        <v>0.9645900422213647</v>
       </c>
     </row>
   </sheetData>
